--- a/frontend/web/templates/good-moral-template.xlsx
+++ b/frontend/web/templates/good-moral-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISTMS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\svms\frontend\web\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56359A4F-7BC2-4F68-8E2D-CBB236526215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB543C2-B266-4EA3-9E12-A7EE1F8D2A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,57 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <r>
-      <t>Republic of the Philippines</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Dancing Script"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Department of Education</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Region I – Ilocos Region
-Schools Division of La Union
-Don Eufemio F. Eriguel Memorial National High School
-Consolacion, Agoo, La Union</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <r>
       <t>CERTIFICATION</t>
@@ -102,12 +52,6 @@
     <t>TO WHOM IT MAY CONCERN:</t>
   </si>
   <si>
-    <t>This is to certify that</t>
-  </si>
-  <si>
-    <t>is a former learner of this institution for the school year</t>
-  </si>
-  <si>
     <t xml:space="preserve"> It is certified that his/her character is categorized as:</t>
   </si>
   <si>
@@ -150,9 +94,6 @@
     <t xml:space="preserve">The student’s record shows that in spite of interventions by the </t>
   </si>
   <si>
-    <t xml:space="preserve">class adviser and guidance designate and diciplone officer, there are no signs of improvement </t>
-  </si>
-  <si>
     <t>in his/her behavior or conduct.</t>
   </si>
   <si>
@@ -162,26 +103,41 @@
     <t xml:space="preserve">Issued this </t>
   </si>
   <si>
-    <t>at Don Eufemio F. Eriguel Memorial National High School</t>
-  </si>
-  <si>
-    <t>, Consolacion, Agoo, La Union.</t>
-  </si>
-  <si>
-    <t>E-mail Address: 300130@deped.gov.ph
-Contact Numbers: 072-889-6033 / 072-888-2092</t>
+    <t>Consolacion, Agoo, La Union.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is to certify that </t>
+  </si>
+  <si>
+    <t>Head Teacher III, Science Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIC- Office of the Assistant Principal II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class adviser and guidance designate and dicipline officer, there are no signs of improvement </t>
+  </si>
+  <si>
+    <t>ROGER L .BERSAMIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,12 +176,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="FZFangS-TC"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -233,17 +183,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Dancing Script"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="FZFangS-TC"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Ebrima"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,21 +210,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -289,19 +236,10 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -310,75 +248,88 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,143 +559,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>207645</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>16510</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>42545</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2552700" y="16510"/>
-          <a:ext cx="617855" cy="597535"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>56515</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>8255</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>585470</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>153035</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Picture4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="351790" y="7628255"/>
-          <a:ext cx="528955" cy="525780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>144145</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>654685</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>151130</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Picture5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3165475" y="7569200"/>
-          <a:ext cx="2560320" cy="392430"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1005,460 +819,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleNormal="53" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="115" zoomScaleNormal="53" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="C11" s="17" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="J12" s="5"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.5">
-      <c r="A16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="B18" s="10" t="s">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="25"/>
+      <c r="B18" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="2"/>
-      <c r="B20" s="11" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="25"/>
+      <c r="B21" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="10" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="B21" s="10" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1">
+      <c r="B22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="2"/>
-      <c r="B23" s="11" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10" t="s">
+    </row>
+    <row r="24" spans="1:9">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="25"/>
+      <c r="B25" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" s="10" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="2"/>
-      <c r="B27" s="11" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" ht="16.5">
+      <c r="B27" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="25"/>
+      <c r="B29" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="B28" s="7" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" ht="16.5">
-      <c r="B29" s="8" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1">
+      <c r="B30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="2"/>
-      <c r="B31" s="11" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1">
+      <c r="A33" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="10" t="s">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" s="10" t="s">
+      <c r="B35" s="11"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="1:10" ht="16.5">
+      <c r="A36" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="B33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="10" t="s">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="14" t="s">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" ht="16.5">
-      <c r="A38" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="22"/>
       <c r="B41" s="22"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
+      <c r="J41" s="22"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C40:F44"/>
-    <mergeCell ref="A40:B44"/>
-    <mergeCell ref="G40:I44"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A1:I9"/>
-    <mergeCell ref="C11:H12"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:H16"/>
+  <mergeCells count="20">
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A9:J10"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.77898550724637683" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;C&amp;"Calibri,Italic"&amp;G
+Republic of the Philippines
+Department of Education
+Region I – Ilocos Region
+Schools Division of La Union
+Don Eufemio F. Eriguel Memorial National High School
+Consolacion, Agoo, La Union&amp;"Calibri Light,Italic"
+</oddHeader>
+    <oddFooter>&amp;LE-mail Address: 300130@deped.gov.ph
+Contact Numbers: 072-889-6033 / 072-888-2092&amp;R&amp;G</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>